--- a/data/Haplotype assigned.xlsx
+++ b/data/Haplotype assigned.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reuben/Desktop/UK_DRI/Manuscripts/Malaria/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reuben/Desktop/UK_DRI/Manuscripts/Malaria/codes/pfMSP1-Malaria/pfMSP1-Malaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD496009-ECF0-8F47-8CFA-2236B862F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404AFA99-A7BE-BB4E-8FDE-4E98322081B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="-17920" windowWidth="28800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="4720" windowWidth="22940" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="17">
   <si>
     <t>Haplotype</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>E-TSSG-L</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -287,16 +296,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -723,1079 +730,1366 @@
   <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9</v>
       </c>
       <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10</v>
       </c>
       <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
       <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>11</v>
       </c>
       <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>11</v>
       </c>
       <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>12</v>
       </c>
       <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
         <v>10</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>12</v>
       </c>
       <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>13</v>
       </c>
       <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
         <v>11</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>13</v>
       </c>
       <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
         <v>9</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>15</v>
       </c>
       <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
         <v>9</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>15</v>
       </c>
       <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
         <v>8</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>16</v>
       </c>
       <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
         <v>10</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>17</v>
       </c>
       <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
         <v>9</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>19</v>
       </c>
       <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
         <v>8</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>19</v>
       </c>
       <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
         <v>4</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>20</v>
       </c>
       <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
         <v>4</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>21</v>
       </c>
       <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
         <v>4</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>23</v>
       </c>
       <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
         <v>7</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>23</v>
       </c>
       <c r="B63" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>24</v>
       </c>
       <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
         <v>12</v>
       </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>24</v>
       </c>
       <c r="B67" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>25</v>
       </c>
       <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
         <v>11</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>25</v>
       </c>
       <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
         <v>13</v>
       </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>26</v>
       </c>
       <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
         <v>7</v>
       </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>26</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
-      </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>27</v>
       </c>
       <c r="B78" t="s">
-        <v>2</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>28</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>28</v>
       </c>
       <c r="B81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>28</v>
       </c>
       <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
         <v>7</v>
       </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>2</v>
-      </c>
-      <c r="C84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>29</v>
       </c>
       <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" t="s">
         <v>10</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>30</v>
       </c>
       <c r="B86" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>30</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>30</v>
       </c>
       <c r="B88" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>31</v>
       </c>
       <c r="B89" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>31</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>31</v>
       </c>
       <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
         <v>4</v>
       </c>
-      <c r="C91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>31</v>
       </c>
       <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
         <v>8</v>
       </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>31</v>
       </c>
       <c r="B93" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>32</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>32</v>
       </c>
       <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" t="s">
         <v>4</v>
       </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>33</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
-      </c>
-      <c r="C96">
+        <v>15</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96">
         <v>3</v>
       </c>
     </row>

--- a/data/Haplotype assigned.xlsx
+++ b/data/Haplotype assigned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reuben/Desktop/UK_DRI/Manuscripts/Malaria/codes/pfMSP1-Malaria/pfMSP1-Malaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404AFA99-A7BE-BB4E-8FDE-4E98322081B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B32E8FD-4842-874F-A034-0E7F34653876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="4720" windowWidth="22940" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="7860" windowWidth="22940" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -729,8 +729,8 @@
   </sheetPr>
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1563,13 +1563,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -1583,7 +1583,7 @@
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1597,7 +1597,7 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1611,7 +1611,7 @@
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -1619,16 +1619,16 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1639,10 +1639,10 @@
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1653,7 +1653,7 @@
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1675,16 +1675,16 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1695,10 +1695,10 @@
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1709,7 +1709,7 @@
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -1723,10 +1723,10 @@
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -1737,7 +1737,7 @@
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1765,10 +1765,10 @@
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1779,7 +1779,7 @@
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -1793,21 +1793,21 @@
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -1821,7 +1821,7 @@
         <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -1829,16 +1829,16 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1849,7 +1849,7 @@
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -1863,10 +1863,10 @@
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -1877,10 +1877,10 @@
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
